--- a/Numerical Methods.xlsx
+++ b/Numerical Methods.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shahnawaj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarwa\Desktop\Suraia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="False Position" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>a</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>f(x0)</t>
+  </si>
+  <si>
+    <t>xi</t>
+  </si>
+  <si>
+    <t>f(xi)</t>
+  </si>
+  <si>
+    <t>f'(xi)</t>
   </si>
 </sst>
 </file>
@@ -361,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -373,7 +382,7 @@
     <col min="6" max="6" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,466 +402,262 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
       <c r="C2">
-        <f>POWER(A2,3)-2*POWER(A2,2)-4</f>
-        <v>-4</v>
+        <f>2*POWER(A2,3)-2*A2-5</f>
+        <v>-5</v>
       </c>
       <c r="D2">
-        <f>POWER(B2,3)-2*POWER(B2,2)-4</f>
-        <v>5</v>
+        <f>2*POWER(B2,3)-2*B2-5</f>
+        <v>7</v>
       </c>
       <c r="E2">
         <f>((A2*D2)-(B2*C2))/(D2-C2)</f>
-        <v>2.4444444444444446</v>
+        <v>1.4166666666666667</v>
       </c>
       <c r="F2">
-        <f>POWER(E2,3)-2*POWER(E2,2)-4</f>
-        <v>-1.3443072702331946</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <f>2*POWER(E2,3)-2*E2-5</f>
+        <v>-2.14699074074074</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>IF((C2*F2)&lt;0,A2,E2)</f>
-        <v>2.4444444444444446</v>
+        <v>1.4166666666666667</v>
       </c>
       <c r="B3">
         <f>IF((D2*F2)&lt;0,B2,E2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <f>POWER(A3,3)-2*POWER(A3,2)-4</f>
-        <v>-1.3443072702331946</v>
+        <f>2*POWER(A3,3)-2*A3-5</f>
+        <v>-2.14699074074074</v>
       </c>
       <c r="D3">
-        <f>POWER(B3,3)-2*POWER(B3,2)-4</f>
-        <v>5</v>
+        <f>2*POWER(B3,3)-2*B3-5</f>
+        <v>7</v>
       </c>
       <c r="E3">
         <f>((A3*D3)-(B3*C3))/(D3-C3)</f>
-        <v>2.5621621621621617</v>
+        <v>1.5535872453498674</v>
       </c>
       <c r="F3">
-        <f>POWER(E3,3)-2*POWER(E3,2)-4</f>
-        <v>-0.30958813890589276</v>
-      </c>
-      <c r="G3">
+        <f>2*POWER(E3,3)-2*E3-5</f>
+        <v>-0.60759458119612741</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A11" si="0">IF((C3*F3)&lt;0,A3,E3)</f>
+        <v>1.5535872453498674</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B11" si="1">IF((D3*F3)&lt;0,B3,E3)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f>IF((C3*F3)&lt;0,A3,E3)</f>
-        <v>2.5621621621621617</v>
-      </c>
-      <c r="B4">
-        <f>IF((D3*F3)&lt;0,B3,E3)</f>
-        <v>3</v>
-      </c>
       <c r="C4">
-        <f>POWER(A4,3)-2*POWER(A4,2)-4</f>
-        <v>-0.30958813890589276</v>
+        <f t="shared" ref="C4:C11" si="2">2*POWER(A4,3)-2*A4-5</f>
+        <v>-0.60759458119612741</v>
       </c>
       <c r="D4">
-        <f>POWER(B4,3)-2*POWER(B4,2)-4</f>
-        <v>5</v>
+        <f t="shared" ref="D4:D11" si="3">2*POWER(B4,3)-2*B4-5</f>
+        <v>7</v>
       </c>
       <c r="E4">
-        <f>((A4*D4)-(B4*C4))/(D4-C4)</f>
-        <v>2.5876913365185605</v>
+        <f t="shared" ref="E4:E11" si="4">((A4*D4)-(B4*C4))/(D4-C4)</f>
+        <v>1.5892408238637228</v>
       </c>
       <c r="F4">
-        <f>POWER(E4,3)-2*POWER(E4,2)-4</f>
-        <v>-6.4732741457630638E-2</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <f>2*POWER(E4,3)-2*E4-5</f>
+        <v>-0.15063378937948801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" ref="A5:A17" si="0">IF((C4*F4)&lt;0,A4,E4)</f>
-        <v>2.5876913365185605</v>
+        <f t="shared" si="0"/>
+        <v>1.5892408238637228</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B17" si="1">IF((D4*F4)&lt;0,B4,E4)</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C17" si="2">POWER(A5,3)-2*POWER(A5,2)-4</f>
-        <v>-6.4732741457630638E-2</v>
+        <f t="shared" si="2"/>
+        <v>-0.15063378937948801</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D17" si="3">POWER(B5,3)-2*POWER(B5,2)-4</f>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E17" si="4">((A5*D5)-(B5*C5))/(D5-C5)</f>
-        <v>2.5929610854818996</v>
+        <f t="shared" si="4"/>
+        <v>1.5978937926838717</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F17" si="5">POWER(E5,3)-2*POWER(E5,2)-4</f>
-        <v>-1.3257455549087638E-2</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F4:F11" si="5">2*POWER(E5,3)-2*E5-5</f>
+        <v>-3.6096361781323694E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>2.5929610854818996</v>
+        <v>1.5978937926838717</v>
       </c>
       <c r="B6">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <f t="shared" si="2"/>
-        <v>-1.3257455549087638E-2</v>
+        <v>-3.6096361781323694E-2</v>
       </c>
       <c r="D6">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <f t="shared" si="4"/>
-        <v>2.5940374914642015</v>
+        <v>1.5999566653887765</v>
       </c>
       <c r="F6">
         <f t="shared" si="5"/>
-        <v>-2.7035975632294651E-3</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-8.5789323783806992E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>2.5940374914642015</v>
+        <v>1.5999566653887765</v>
       </c>
       <c r="B7">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <f t="shared" si="2"/>
-        <v>-2.7035975632294651E-3</v>
+        <v>-8.5789323783806992E-3</v>
       </c>
       <c r="D7">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <f t="shared" si="4"/>
-        <v>2.5942568846837748</v>
+        <v>1.6004463430751041</v>
       </c>
       <c r="F7">
         <f t="shared" si="5"/>
-        <v>-5.5086518511870963E-4</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-2.0349438062154945E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>2.5942568846837748</v>
+        <v>1.6004463430751041</v>
       </c>
       <c r="B8">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <f t="shared" si="2"/>
-        <v>-5.5086518511870963E-4</v>
+        <v>-2.0349438062154945E-3</v>
       </c>
       <c r="D8">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <f t="shared" si="4"/>
-        <v>2.5943015817106336</v>
+        <v>1.6005624620670738</v>
       </c>
       <c r="F8">
         <f t="shared" si="5"/>
-        <v>-1.122203060113236E-4</v>
-      </c>
-      <c r="G8">
+        <v>-4.8246933767082112E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>1.6005624620670738</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>-4.8246933767082112E-4</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>2.5943015817106336</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="2"/>
-        <v>-1.122203060113236E-4</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
       <c r="E9">
         <f t="shared" si="4"/>
-        <v>2.594310687026403</v>
+        <v>1.6005899910788541</v>
       </c>
       <c r="F9">
         <f t="shared" si="5"/>
-        <v>-2.2860296178706108E-5</v>
-      </c>
-      <c r="G9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-1.1437711682660279E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>2.594310687026403</v>
+        <v>1.6005899910788541</v>
       </c>
       <c r="B10">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <f t="shared" si="2"/>
-        <v>-2.2860296178706108E-5</v>
+        <v>-1.1437711682660279E-4</v>
       </c>
       <c r="D10">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <f t="shared" si="4"/>
-        <v>2.5943125418534931</v>
+        <v>1.6005965171672565</v>
       </c>
       <c r="F10">
         <f t="shared" si="5"/>
-        <v>-4.65681574546295E-6</v>
-      </c>
-      <c r="G10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>-2.7114226717195322E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>2.5943125418534931</v>
+        <v>1.6005965171672565</v>
       </c>
       <c r="B11">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <f t="shared" si="2"/>
-        <v>-4.65681574546295E-6</v>
+        <v>-2.7114226717195322E-5</v>
       </c>
       <c r="D11">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <f t="shared" si="4"/>
-        <v>2.5943129196954899</v>
+        <v>1.6005980642350619</v>
       </c>
       <c r="F11">
         <f t="shared" si="5"/>
-        <v>-9.4862726562894295E-7</v>
-      </c>
-      <c r="G11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>2.5943129196954899</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="2"/>
-        <v>-9.4862726562894295E-7</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="4"/>
-        <v>2.5943129966646405</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="5"/>
-        <v>-1.9324222222394383E-7</v>
-      </c>
-      <c r="G12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>2.5943129966646405</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="2"/>
-        <v>-1.9324222222394383E-7</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="4"/>
-        <v>2.5943130123438118</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="5"/>
-        <v>-3.9364829618193653E-8</v>
-      </c>
-      <c r="G13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>2.5943130123438118</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="2"/>
-        <v>-3.9364829618193653E-8</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="4"/>
-        <v>2.5943130155377716</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="5"/>
-        <v>-8.0188993223373473E-9</v>
-      </c>
-      <c r="G14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>2.5943130155377716</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="2"/>
-        <v>-8.0188993223373473E-9</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="4"/>
-        <v>2.594313016188404</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="5"/>
-        <v>-1.6335111041598793E-9</v>
-      </c>
-      <c r="G15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>2.594313016188404</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="2"/>
-        <v>-1.6335111041598793E-9</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="4"/>
-        <v>2.5943130163209429</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="5"/>
-        <v>-3.3275782129749132E-10</v>
-      </c>
-      <c r="G16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>2.5943130163209429</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="2"/>
-        <v>-3.3275782129749132E-10</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="4"/>
-        <v>2.5943130163479418</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="5"/>
-        <v>-6.7785776991513558E-11</v>
-      </c>
-      <c r="G17">
-        <v>16</v>
+        <v>-6.4276557791842492E-6</v>
       </c>
     </row>
   </sheetData>
@@ -862,28 +667,774 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <f>2*POWER(A2,3)-2*A2-5</f>
+        <v>-5</v>
+      </c>
+      <c r="D2">
+        <f>2*POWER(B2,3)-2*B2-5</f>
+        <v>43</v>
+      </c>
+      <c r="E2">
+        <f>(A2+B2)/2</f>
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <f>2*POWER(E2,3)-2*E2-5</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>IF((C2*F2)&lt;0,A2,E2)</f>
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>IF((D2*F2)&lt;0,B2,E2)</f>
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f>2*POWER(A3,3)-2*A3-5</f>
+        <v>-5</v>
+      </c>
+      <c r="D3">
+        <f>2*POWER(B3,3)-2*B3-5</f>
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <f>(A3+B3)/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="F3">
+        <f>2*POWER(E3,3)-2*E3-5</f>
+        <v>-1.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A13" si="0">IF((C3*F3)&lt;0,A3,E3)</f>
+        <v>1.5</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B13" si="1">IF((D3*F3)&lt;0,B3,E3)</f>
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C13" si="2">2*POWER(A4,3)-2*A4-5</f>
+        <v>-1.25</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D13" si="3">2*POWER(B4,3)-2*B4-5</f>
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E13" si="4">(A4+B4)/2</f>
+        <v>1.75</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F21" si="5">2*POWER(E4,3)-2*E4-5</f>
+        <v>2.21875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="2"/>
+        <v>-1.25</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="3"/>
+        <v>2.21875</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="4"/>
+        <v>1.625</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="5"/>
+        <v>0.33203125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>1.625</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>-1.25</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="3"/>
+        <v>0.33203125</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="4"/>
+        <v>1.5625</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="5"/>
+        <v>-0.49560546875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>1.5625</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>1.625</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>-0.49560546875</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="3"/>
+        <v>0.33203125</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="4"/>
+        <v>1.59375</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="5"/>
+        <v>-9.112548828125E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>1.59375</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>1.625</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>-9.112548828125E-2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>0.33203125</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="4"/>
+        <v>1.609375</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="5"/>
+        <v>0.11809539794921875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>1.59375</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>1.609375</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>-9.112548828125E-2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="3"/>
+        <v>0.11809539794921875</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>1.6015625</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="5"/>
+        <v>1.2898445129394531E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>1.59375</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>1.6015625</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>-9.112548828125E-2</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>1.2898445129394531E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="4"/>
+        <v>1.59765625</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="5"/>
+        <v>-3.9259791374206543E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>1.59765625</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>1.6015625</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>-3.9259791374206543E-2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>1.2898445129394531E-2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="4"/>
+        <v>1.599609375</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="5"/>
+        <v>-1.321728527545929E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>1.599609375</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>1.6015625</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>-1.321728527545929E-2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="3"/>
+        <v>1.2898445129394531E-2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="4"/>
+        <v>1.6005859375</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="5"/>
+        <v>-1.6857869923114777E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>1.6005859375</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>1.6015625</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>-1.6857869923114777E-4</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>1.2898445129394531E-2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="4"/>
+        <v>1.60107421875</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="5"/>
+        <v>6.3626428600400686E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>IF((C13*F13)&lt;0,A13,E13)</f>
+        <v>1.6005859375</v>
+      </c>
+      <c r="B14">
+        <f>IF((D13*F13)&lt;0,B13,E13)</f>
+        <v>1.60107421875</v>
+      </c>
+      <c r="C14">
+        <f>2*POWER(A14,3)-2*A14-5</f>
+        <v>-1.6857869923114777E-4</v>
+      </c>
+      <c r="D14">
+        <f>2*POWER(B14,3)-2*B14-5</f>
+        <v>6.3626428600400686E-3</v>
+      </c>
+      <c r="E14">
+        <f>(A14+B14)/2</f>
+        <v>1.600830078125</v>
+      </c>
+      <c r="F14">
+        <f>2*POWER(E14,3)-2*E14-5</f>
+        <v>3.096459578955546E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" ref="A15" si="6">IF((C14*F14)&lt;0,A14,E14)</f>
+        <v>1.6005859375</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ref="B15" si="7">IF((D14*F14)&lt;0,B14,E14)</f>
+        <v>1.600830078125</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15" si="8">2*POWER(A15,3)-2*A15-5</f>
+        <v>-1.6857869923114777E-4</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15" si="9">2*POWER(B15,3)-2*B15-5</f>
+        <v>3.096459578955546E-3</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15" si="10">(A15+B15)/2</f>
+        <v>1.6007080078125</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="5"/>
+        <v>1.4637973254139069E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>IF((C15*F15)&lt;0,A15,E15)</f>
+        <v>1.6005859375</v>
+      </c>
+      <c r="B16">
+        <f>IF((D15*F15)&lt;0,B15,E15)</f>
+        <v>1.6007080078125</v>
+      </c>
+      <c r="C16">
+        <f>2*POWER(A16,3)-2*A16-5</f>
+        <v>-1.6857869923114777E-4</v>
+      </c>
+      <c r="D16">
+        <f>2*POWER(B16,3)-2*B16-5</f>
+        <v>1.4637973254139069E-3</v>
+      </c>
+      <c r="E16">
+        <f>(A16+B16)/2</f>
+        <v>1.60064697265625</v>
+      </c>
+      <c r="F16">
+        <f>2*POWER(E16,3)-2*E16-5</f>
+        <v>6.475735358435486E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" ref="A17:A18" si="11">IF((C16*F16)&lt;0,A16,E16)</f>
+        <v>1.6005859375</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ref="B17:B18" si="12">IF((D16*F16)&lt;0,B16,E16)</f>
+        <v>1.60064697265625</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:C18" si="13">2*POWER(A17,3)-2*A17-5</f>
+        <v>-1.6857869923114777E-4</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:D18" si="14">2*POWER(B17,3)-2*B17-5</f>
+        <v>6.475735358435486E-4</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17:E18" si="15">(A17+B17)/2</f>
+        <v>1.600616455078125</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>2.3948847416477292E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="11"/>
+        <v>1.6005859375</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="12"/>
+        <v>1.600616455078125</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="13"/>
+        <v>-1.6857869923114777E-4</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="14"/>
+        <v>2.3948847416477292E-4</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="15"/>
+        <v>1.6006011962890625</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="5"/>
+        <v>3.5452651452771988E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>IF((C18*F18)&lt;0,A18,E18)</f>
+        <v>1.6005859375</v>
+      </c>
+      <c r="B19">
+        <f>IF((D18*F18)&lt;0,B18,E18)</f>
+        <v>1.6006011962890625</v>
+      </c>
+      <c r="C19">
+        <f>2*POWER(A19,3)-2*A19-5</f>
+        <v>-1.6857869923114777E-4</v>
+      </c>
+      <c r="D19">
+        <f>2*POWER(B19,3)-2*B19-5</f>
+        <v>3.5452651452771988E-5</v>
+      </c>
+      <c r="E19">
+        <f>(A19+B19)/2</f>
+        <v>1.6005935668945313</v>
+      </c>
+      <c r="F19">
+        <f>2*POWER(E19,3)-2*E19-5</f>
+        <v>-6.656358289092168E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" ref="A20:A21" si="16">IF((C19*F19)&lt;0,A19,E19)</f>
+        <v>1.6005935668945313</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20:B21" si="17">IF((D19*F19)&lt;0,B19,E19)</f>
+        <v>1.6006011962890625</v>
+      </c>
+      <c r="C20">
+        <f t="shared" ref="C20:C21" si="18">2*POWER(A20,3)-2*A20-5</f>
+        <v>-6.656358289092168E-5</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20:D21" si="19">2*POWER(B20,3)-2*B20-5</f>
+        <v>3.5452651452771988E-5</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:E21" si="20">(A20+B20)/2</f>
+        <v>1.6005973815917969</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="5"/>
+        <v>-1.5555605468620115E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="16"/>
+        <v>1.6005973815917969</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="17"/>
+        <v>1.6006011962890625</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="18"/>
+        <v>-1.5555605468620115E-5</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="19"/>
+        <v>3.5452651452771988E-5</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="20"/>
+        <v>1.6005992889404297</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="5"/>
+        <v>9.9484880546896193E-6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <f>2*POWER(A2,3)-2*A2-5</f>
+        <v>43</v>
+      </c>
+      <c r="C2">
+        <f>6*POWER(A2,2)-2</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2-(B2/C2)</f>
+        <v>2.1730769230769234</v>
+      </c>
+      <c r="B3">
+        <f>2*POWER(A3,3)-2*A3-5</f>
+        <v>11.177529016841156</v>
+      </c>
+      <c r="C3">
+        <f>6*POWER(A3,2)-2</f>
+        <v>26.333579881656814</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A12" si="0">A3-(B3/C3)</f>
+        <v>1.748617769894067</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B15" si="1">2*POWER(A4,3)-2*A4-5</f>
+        <v>2.1961360376143713</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C12" si="2">6*POWER(A4,2)-2</f>
+        <v>16.345984631135803</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>1.614264527359434</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>0.18453326723267693</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="2"/>
+        <v>13.635099785745862</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>1.6007308334274257</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>1.7690628990960633E-3</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>13.374035206511566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>1.6005985575008426</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>1.6804253277769021E-7</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>13.371494453642669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>1.6005985449336211</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>13.37149421226175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>1.6005985449336211</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>13.37149421226175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>A9-(B9/C9)</f>
+        <v>1.6005985449336211</v>
+      </c>
+      <c r="B10">
+        <f>2*POWER(A10,3)-2*A10-5</f>
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <f>6*POWER(A10,2)-2</f>
+        <v>13.37149421226175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" ref="A11:A15" si="3">A10-(B10/C10)</f>
+        <v>1.6005985449336211</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:C15" si="4">6*POWER(A11,2)-2</f>
+        <v>13.37149421226175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="3"/>
+        <v>1.6005985449336211</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="4"/>
+        <v>13.37149421226175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="3"/>
+        <v>1.6005985449336211</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="4"/>
+        <v>13.37149421226175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="3"/>
+        <v>1.6005985449336211</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="4"/>
+        <v>13.37149421226175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="3"/>
+        <v>1.6005985449336211</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="4"/>
+        <v>13.37149421226175</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>